--- a/EXCEL/LC 테이블레이아웃.xlsx
+++ b/EXCEL/LC 테이블레이아웃.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="87">
   <si>
     <t>테이블한글명</t>
   </si>
@@ -239,6 +239,39 @@
   </si>
   <si>
     <t>체킁니서울메뉴기능구분</t>
+  </si>
+  <si>
+    <t>FG_관리자권한</t>
+  </si>
+  <si>
+    <t>FG_TB_MGR_RGH</t>
+  </si>
+  <si>
+    <t>GRP_ID</t>
+  </si>
+  <si>
+    <t>그룹ID</t>
+  </si>
+  <si>
+    <t>FG_관리자권한그룹</t>
+  </si>
+  <si>
+    <t>FG_TB_MGR_RGH_GRP</t>
+  </si>
+  <si>
+    <t>GRP_NM</t>
+  </si>
+  <si>
+    <t>그룹명</t>
+  </si>
+  <si>
+    <t>FG_관리자권한그룹기능</t>
+  </si>
+  <si>
+    <t>FG_TB_MGR_RGH_GRP_FNC</t>
+  </si>
+  <si>
+    <t>MEN_FNC_iD</t>
   </si>
 </sst>
 </file>
@@ -495,8 +528,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="2" max="2" width="20.13"/>
+    <col customWidth="1" min="1" max="1" width="18.0"/>
+    <col customWidth="1" min="2" max="2" width="24.75"/>
     <col customWidth="1" min="3" max="3" width="19.13"/>
     <col customWidth="1" min="4" max="4" width="13.88"/>
     <col customWidth="1" min="5" max="5" width="7.75"/>
@@ -1271,6 +1304,500 @@
         <v>41</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
